--- a/config/relatorio_excel.xlsx
+++ b/config/relatorio_excel.xlsx
@@ -734,7 +734,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Urbita</t>
+          <t>urbita</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -744,7 +744,11 @@
           <t>Mao de obra :</t>
         </is>
       </c>
-      <c r="F4" s="3" t="n"/>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>R$700,00</t>
+        </is>
+      </c>
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="n"/>
       <c r="I4" s="1" t="n"/>
@@ -786,7 +790,11 @@
           <t>Material :</t>
         </is>
       </c>
-      <c r="F5" s="3" t="n"/>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>R$800,00</t>
+        </is>
+      </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
@@ -828,7 +836,11 @@
           <t xml:space="preserve">Valor Final : </t>
         </is>
       </c>
-      <c r="F6" s="11" t="n"/>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>R$3112,04</t>
+        </is>
+      </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
@@ -860,7 +872,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>11999835594</t>
+          <t>11 99999-9999</t>
         </is>
       </c>
       <c r="C7" s="4" t="n"/>
@@ -898,7 +910,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>thalita@propriedade_leo.com</t>
+          <t>thalita@gmail.com</t>
         </is>
       </c>
       <c r="C8" s="4" t="n"/>
@@ -936,7 +948,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Thalita</t>
+          <t>thalita gita</t>
         </is>
       </c>
       <c r="C9" s="4" t="n"/>
@@ -1094,7 +1106,7 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>DESCRIÇÃO</t>
+          <t>PINTAR</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1108,12 +1120,12 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>MATERIAL</t>
+          <t>CHAPA DE AÇO</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H13" s="1" t="n"/>
@@ -1144,7 +1156,7 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>DESCRIÇÃO</t>
+          <t>SOLDAR</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1158,12 +1170,12 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>MATERIAL</t>
+          <t>CONEXOES</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H14" s="1" t="n"/>
@@ -1194,12 +1206,12 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>DESCRIÇÃO</t>
+          <t>USINAR</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D15" s="1" t="n"/>
@@ -1208,12 +1220,12 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>MATERIAL</t>
+          <t>TINTAS</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H15" s="1" t="n"/>
